--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N2">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O2">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P2">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q2">
-        <v>2.032684196313333</v>
+        <v>1.982923439310667</v>
       </c>
       <c r="R2">
-        <v>18.29415776682</v>
+        <v>17.846310953796</v>
       </c>
       <c r="S2">
-        <v>0.01538488819093778</v>
+        <v>0.01659171843130671</v>
       </c>
       <c r="T2">
-        <v>0.01538488819093778</v>
+        <v>0.0165917184313067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H3">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I3">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J3">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.879377</v>
       </c>
       <c r="O3">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P3">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q3">
-        <v>1.423214514748</v>
+        <v>2.491964518719</v>
       </c>
       <c r="R3">
-        <v>12.808930632732</v>
+        <v>22.427680668471</v>
       </c>
       <c r="S3">
-        <v>0.01077196163616089</v>
+        <v>0.02085101866049134</v>
       </c>
       <c r="T3">
-        <v>0.01077196163616089</v>
+        <v>0.02085101866049133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H4">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I4">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J4">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N4">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O4">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P4">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q4">
-        <v>2.760734742792</v>
+        <v>5.345513802724334</v>
       </c>
       <c r="R4">
-        <v>24.846612685128</v>
+        <v>48.109624224519</v>
       </c>
       <c r="S4">
-        <v>0.02089532423173575</v>
+        <v>0.04472752609969547</v>
       </c>
       <c r="T4">
-        <v>0.02089532423173574</v>
+        <v>0.04472752609969546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H5">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I5">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J5">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.904191</v>
+        <v>0.5332636666666667</v>
       </c>
       <c r="N5">
-        <v>2.712573</v>
+        <v>1.599791</v>
       </c>
       <c r="O5">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068107</v>
       </c>
       <c r="P5">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068106</v>
       </c>
       <c r="Q5">
-        <v>0.791202087052</v>
+        <v>0.8170351275103334</v>
       </c>
       <c r="R5">
-        <v>7.120818783468001</v>
+        <v>7.353316147593</v>
       </c>
       <c r="S5">
-        <v>0.00598841456425397</v>
+        <v>0.006836379315204813</v>
       </c>
       <c r="T5">
-        <v>0.005988414564253969</v>
+        <v>0.006836379315204809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J6">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N6">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O6">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P6">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q6">
-        <v>24.6685409803</v>
+        <v>13.74383743394667</v>
       </c>
       <c r="R6">
-        <v>222.0168688227</v>
+        <v>123.69453690552</v>
       </c>
       <c r="S6">
-        <v>0.186710137021688</v>
+        <v>0.1149988327078168</v>
       </c>
       <c r="T6">
-        <v>0.1867101370216879</v>
+        <v>0.1149988327078167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J7">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.879377</v>
       </c>
       <c r="O7">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P7">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q7">
         <v>17.27205123378</v>
@@ -883,10 +883,10 @@
         <v>155.44846110402</v>
       </c>
       <c r="S7">
-        <v>0.1307279200289964</v>
+        <v>0.1445204616178243</v>
       </c>
       <c r="T7">
-        <v>0.1307279200289964</v>
+        <v>0.1445204616178243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>31.85826</v>
       </c>
       <c r="I8">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J8">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N8">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O8">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P8">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q8">
-        <v>33.50412142811999</v>
+        <v>37.05028204775333</v>
       </c>
       <c r="R8">
-        <v>301.53709285308</v>
+        <v>333.45253842978</v>
       </c>
       <c r="S8">
-        <v>0.2535844786131118</v>
+        <v>0.3100108836025066</v>
       </c>
       <c r="T8">
-        <v>0.2535844786131117</v>
+        <v>0.3100108836025066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>31.85826</v>
       </c>
       <c r="I9">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J9">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.904191</v>
+        <v>0.5332636666666667</v>
       </c>
       <c r="N9">
-        <v>2.712573</v>
+        <v>1.599791</v>
       </c>
       <c r="O9">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068107</v>
       </c>
       <c r="P9">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068106</v>
       </c>
       <c r="Q9">
-        <v>9.601983989219999</v>
+        <v>5.662950847073334</v>
       </c>
       <c r="R9">
-        <v>86.41785590297999</v>
+        <v>50.96655762366</v>
       </c>
       <c r="S9">
-        <v>0.07267506204517807</v>
+        <v>0.04738361758315474</v>
       </c>
       <c r="T9">
-        <v>0.07267506204517805</v>
+        <v>0.04738361758315472</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H10">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I10">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J10">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N10">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O10">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P10">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q10">
-        <v>10.68601841761667</v>
+        <v>6.344594609970222</v>
       </c>
       <c r="R10">
-        <v>96.17416575855</v>
+        <v>57.101351489732</v>
       </c>
       <c r="S10">
-        <v>0.08087985278751679</v>
+        <v>0.0530871365190009</v>
       </c>
       <c r="T10">
-        <v>0.08087985278751678</v>
+        <v>0.05308713651900088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H11">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I11">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J11">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.879377</v>
       </c>
       <c r="O11">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P11">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q11">
-        <v>7.48197705497</v>
+        <v>7.973330861022998</v>
       </c>
       <c r="R11">
-        <v>67.33779349472999</v>
+        <v>71.759977749207</v>
       </c>
       <c r="S11">
-        <v>0.05662924946563197</v>
+        <v>0.06671526392957004</v>
       </c>
       <c r="T11">
-        <v>0.05662924946563197</v>
+        <v>0.06671526392957003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H12">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I12">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J12">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N12">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O12">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P12">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q12">
-        <v>14.51345091438</v>
+        <v>17.10359431329145</v>
       </c>
       <c r="R12">
-        <v>130.62105822942</v>
+        <v>153.932348819623</v>
       </c>
       <c r="S12">
-        <v>0.1098487507244734</v>
+        <v>0.1431109317604725</v>
       </c>
       <c r="T12">
-        <v>0.1098487507244734</v>
+        <v>0.1431109317604725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H13">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I13">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J13">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.904191</v>
+        <v>0.5332636666666667</v>
       </c>
       <c r="N13">
-        <v>2.712573</v>
+        <v>1.599791</v>
       </c>
       <c r="O13">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068107</v>
       </c>
       <c r="P13">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068106</v>
       </c>
       <c r="Q13">
-        <v>4.15942628453</v>
+        <v>2.614199097853445</v>
       </c>
       <c r="R13">
-        <v>37.43483656077</v>
+        <v>23.527791880681</v>
       </c>
       <c r="S13">
-        <v>0.03148167749914338</v>
+        <v>0.0218737922478937</v>
       </c>
       <c r="T13">
-        <v>0.03148167749914337</v>
+        <v>0.02187379224789369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H14">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I14">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J14">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N14">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O14">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P14">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q14">
-        <v>0.9359396335766665</v>
+        <v>0.2070204162053333</v>
       </c>
       <c r="R14">
-        <v>8.423456702189998</v>
+        <v>1.863183745848</v>
       </c>
       <c r="S14">
-        <v>0.007083897558784713</v>
+        <v>0.001732202256081496</v>
       </c>
       <c r="T14">
-        <v>0.007083897558784713</v>
+        <v>0.001732202256081495</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H15">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I15">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J15">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.879377</v>
       </c>
       <c r="O15">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P15">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q15">
-        <v>0.6553122584659998</v>
+        <v>0.260165128722</v>
       </c>
       <c r="R15">
-        <v>5.897810326193999</v>
+        <v>2.341486158498</v>
       </c>
       <c r="S15">
-        <v>0.004959897777006294</v>
+        <v>0.002176880093212618</v>
       </c>
       <c r="T15">
-        <v>0.004959897777006294</v>
+        <v>0.002176880093212617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H16">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I16">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J16">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N16">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O16">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P16">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q16">
-        <v>1.271166995964</v>
+        <v>0.5580802921246667</v>
       </c>
       <c r="R16">
-        <v>11.440502963676</v>
+        <v>5.022722629122</v>
       </c>
       <c r="S16">
-        <v>0.009621151254280605</v>
+        <v>0.004669626111340332</v>
       </c>
       <c r="T16">
-        <v>0.009621151254280605</v>
+        <v>0.004669626111340331</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H17">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I17">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J17">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.904191</v>
+        <v>0.5332636666666667</v>
       </c>
       <c r="N17">
-        <v>2.712573</v>
+        <v>1.599791</v>
       </c>
       <c r="O17">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068107</v>
       </c>
       <c r="P17">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068106</v>
       </c>
       <c r="Q17">
-        <v>0.364305184634</v>
+        <v>0.08529978959266667</v>
       </c>
       <c r="R17">
-        <v>3.278746661705999</v>
+        <v>0.7676981063339999</v>
       </c>
       <c r="S17">
-        <v>0.002757336601100365</v>
+        <v>0.0007137290644278375</v>
       </c>
       <c r="T17">
-        <v>0.002757336601100364</v>
+        <v>0.0007137290644278372</v>
       </c>
     </row>
   </sheetData>
